--- a/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre / solo 2023 en 2023 (tasa de respuesta: 99,76%)</t>
+          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>43774</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31844</v>
+        <v>31899</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59699</v>
+        <v>59828</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06365871924190422</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04630976595736389</v>
+        <v>0.04639025615977686</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08681842809585773</v>
+        <v>0.08700581328620703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -762,19 +762,19 @@
         <v>23631</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15533</v>
+        <v>16373</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33126</v>
+        <v>33014</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03226866591648037</v>
+        <v>0.03226866591648038</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0212095880069491</v>
+        <v>0.02235701218567679</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04523390295033812</v>
+        <v>0.04508100920424485</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -783,19 +783,19 @@
         <v>67405</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52335</v>
+        <v>52202</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86041</v>
+        <v>85128</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04746960139733927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03685673996654027</v>
+        <v>0.03676293175931392</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06059376082873699</v>
+        <v>0.05995064473857366</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>80930</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60332</v>
+        <v>61312</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102381</v>
+        <v>103101</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1176938513969396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08773830312095725</v>
+        <v>0.08916382704555222</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1488890972468615</v>
+        <v>0.1499362999507683</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -833,19 +833,19 @@
         <v>54919</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42465</v>
+        <v>42586</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70275</v>
+        <v>70057</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07499123391945564</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05798559824183975</v>
+        <v>0.05815150097985197</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09596095338831938</v>
+        <v>0.09566221809672153</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>134</v>
@@ -854,19 +854,19 @@
         <v>135849</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>112933</v>
+        <v>113791</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>166012</v>
+        <v>166180</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.09567038748474405</v>
+        <v>0.09567038748474402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07953200189351002</v>
+        <v>0.08013633023480189</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1169124376044474</v>
+        <v>0.1170308433983834</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>293930</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>267467</v>
+        <v>268330</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>322291</v>
+        <v>322172</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4274526887340453</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3889687048076765</v>
+        <v>0.3902231883538296</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.468696537615473</v>
+        <v>0.4685234622252052</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>653</v>
@@ -904,19 +904,19 @@
         <v>371111</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>347444</v>
+        <v>350534</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>393618</v>
+        <v>394252</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.506751598021279</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4744335020824514</v>
+        <v>0.4786531213858873</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5374843778905716</v>
+        <v>0.5383504721248004</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1007</v>
@@ -925,19 +925,19 @@
         <v>665042</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>627567</v>
+        <v>630145</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>701800</v>
+        <v>700859</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4683503378742816</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4419591594116446</v>
+        <v>0.4437745542190362</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4942369965742145</v>
+        <v>0.4935742923521903</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>143549</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121152</v>
+        <v>121192</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>173012</v>
+        <v>172075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2087585028685526</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1761871889409044</v>
+        <v>0.176245838161502</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2516048358518174</v>
+        <v>0.2502426790473744</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>253</v>
@@ -975,19 +975,19 @@
         <v>152022</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135350</v>
+        <v>133916</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>171374</v>
+        <v>169889</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2075855380977313</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1848196322346166</v>
+        <v>0.1828622003998992</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2340109489517881</v>
+        <v>0.2319829014906574</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>388</v>
@@ -996,19 +996,19 @@
         <v>295571</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>268236</v>
+        <v>265214</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>329215</v>
+        <v>327629</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2081535575788621</v>
+        <v>0.208153557578862</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1889028127488304</v>
+        <v>0.1867748258461105</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2318473601030335</v>
+        <v>0.2307305165168089</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>125449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>106154</v>
+        <v>105850</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>147756</v>
+        <v>146011</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1824362377585582</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1543758205954797</v>
+        <v>0.1539347907221804</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2148772785597859</v>
+        <v>0.2123384476421397</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>226</v>
@@ -1046,19 +1046,19 @@
         <v>130651</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>114942</v>
+        <v>114149</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>148527</v>
+        <v>149633</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1784029640450538</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.156952746530117</v>
+        <v>0.1558707375664173</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2028131830816274</v>
+        <v>0.2043240379472463</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>362</v>
@@ -1067,19 +1067,19 @@
         <v>256100</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>228296</v>
+        <v>228599</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>282000</v>
+        <v>284257</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.180356115664773</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1607753415077778</v>
+        <v>0.1609891574779596</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1985959802965268</v>
+        <v>0.2001855413723972</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>96982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75176</v>
+        <v>75554</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121862</v>
+        <v>124715</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09270065720796535</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07185664580260342</v>
+        <v>0.07221813224953129</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1164815437632202</v>
+        <v>0.1192086380946529</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -1192,19 +1192,19 @@
         <v>52727</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41144</v>
+        <v>40573</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69129</v>
+        <v>67680</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04929905939363632</v>
+        <v>0.04929905939363631</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03846954213134067</v>
+        <v>0.03793570845008785</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06463505499310225</v>
+        <v>0.06328038634874779</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -1213,19 +1213,19 @@
         <v>149709</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>123519</v>
+        <v>122470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178804</v>
+        <v>176630</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07076048997435749</v>
+        <v>0.07076048997435747</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05838183961424477</v>
+        <v>0.05788581934713607</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08451216488431501</v>
+        <v>0.08348458355191428</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>172334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>143874</v>
+        <v>142540</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>202246</v>
+        <v>202900</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.164725215178544</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1375217927944352</v>
+        <v>0.1362470407232076</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1933174187291244</v>
+        <v>0.193941924801673</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>82</v>
@@ -1263,19 +1263,19 @@
         <v>70046</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>54162</v>
+        <v>54078</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88152</v>
+        <v>86091</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0654930244187326</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05064087053177416</v>
+        <v>0.0505628545914512</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08242175878293732</v>
+        <v>0.08049488081474773</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>209</v>
@@ -1284,19 +1284,19 @@
         <v>242380</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>210676</v>
+        <v>209980</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>279583</v>
+        <v>281772</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1145618347992911</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09957694982617163</v>
+        <v>0.09924778457119554</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1321457346038267</v>
+        <v>0.1331804346756448</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>429608</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>393684</v>
+        <v>393775</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>467152</v>
+        <v>464669</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4106408565403486</v>
+        <v>0.4106408565403487</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3763036613986804</v>
+        <v>0.3763898575739716</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4465275561347249</v>
+        <v>0.4441540520025795</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>787</v>
@@ -1334,19 +1334,19 @@
         <v>535871</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>505644</v>
+        <v>503786</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>563967</v>
+        <v>563807</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.501036832938487</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4727748005797325</v>
+        <v>0.4710371544410617</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5273059970064826</v>
+        <v>0.5271565571939352</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1224</v>
@@ -1355,19 +1355,19 @@
         <v>965479</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>918068</v>
+        <v>918642</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1006259</v>
+        <v>1010999</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4563373962830777</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4339280013586702</v>
+        <v>0.4341994376189686</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4756122042040881</v>
+        <v>0.4778525482564059</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>190907</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>165565</v>
+        <v>164961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>219026</v>
+        <v>219336</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1824784092335944</v>
+        <v>0.1824784092335943</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1582551749386978</v>
+        <v>0.157677886638624</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2093562294643233</v>
+        <v>0.2096526471299755</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>335</v>
@@ -1405,19 +1405,19 @@
         <v>229404</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>206404</v>
+        <v>206585</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>253855</v>
+        <v>254116</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2144913594609676</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1929863126093445</v>
+        <v>0.1931556711939033</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2373534716744494</v>
+        <v>0.2375973785982384</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>515</v>
@@ -1426,19 +1426,19 @@
         <v>420311</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>384966</v>
+        <v>383582</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>454948</v>
+        <v>456605</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1986614420480648</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1819557922624616</v>
+        <v>0.1813013355156057</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2150329498230353</v>
+        <v>0.2158159095932322</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>156358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>132254</v>
+        <v>132184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>183502</v>
+        <v>182820</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1494548618395475</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1264149396840122</v>
+        <v>0.1263479568285718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1754007858610537</v>
+        <v>0.1747487724139843</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>246</v>
@@ -1476,19 +1476,19 @@
         <v>181477</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>159360</v>
+        <v>160535</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>205249</v>
+        <v>206757</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1696797237881764</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1490002588490008</v>
+        <v>0.1500993835468101</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1919070378996829</v>
+        <v>0.1933167064696544</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>399</v>
@@ -1497,19 +1497,19 @@
         <v>337835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>308640</v>
+        <v>307945</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>374525</v>
+        <v>374555</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.159678836895209</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1458799291969336</v>
+        <v>0.1455513363405319</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1770204348503107</v>
+        <v>0.1770347677857811</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>99142</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78775</v>
+        <v>78170</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>124337</v>
+        <v>123785</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1236270523922079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09823042874906376</v>
+        <v>0.09747620777534867</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1550445687107033</v>
+        <v>0.154355919861194</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -1622,19 +1622,19 @@
         <v>58299</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45287</v>
+        <v>44593</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76201</v>
+        <v>72702</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07202333368146568</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05594764025026776</v>
+        <v>0.05509013283866455</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09413957317417664</v>
+        <v>0.08981582435936629</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>140</v>
@@ -1643,19 +1643,19 @@
         <v>157441</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130630</v>
+        <v>132320</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>184078</v>
+        <v>187955</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09770499532440957</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08106657991691066</v>
+        <v>0.08211496823527319</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1142348789769087</v>
+        <v>0.1166414342329876</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>90818</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>69341</v>
+        <v>69206</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117454</v>
+        <v>116303</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1132473540976237</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08646672899300249</v>
+        <v>0.08629814946514495</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1464612434623245</v>
+        <v>0.1450266917970091</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -1693,19 +1693,19 @@
         <v>47493</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35290</v>
+        <v>35417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62683</v>
+        <v>62915</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05867254067462241</v>
+        <v>0.0586725406746224</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04359731357288441</v>
+        <v>0.04375474094850231</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07743867977200086</v>
+        <v>0.07772565905983263</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>114</v>
@@ -1714,19 +1714,19 @@
         <v>138311</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113557</v>
+        <v>114223</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>169757</v>
+        <v>167169</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08583282926569542</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07047095724219252</v>
+        <v>0.07088455328483603</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1053476234846057</v>
+        <v>0.103742009814024</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>330748</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>298375</v>
+        <v>301493</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>364282</v>
+        <v>363428</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4124329850864545</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3720649072890918</v>
+        <v>0.375953246343159</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4542486669859722</v>
+        <v>0.4531834817510075</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>443</v>
@@ -1764,19 +1764,19 @@
         <v>340075</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>314915</v>
+        <v>313687</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>367146</v>
+        <v>368611</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4201309519999853</v>
+        <v>0.4201309519999855</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3890478051775086</v>
+        <v>0.3875299843287513</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4535746750924635</v>
+        <v>0.4553839541067641</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>735</v>
@@ -1785,19 +1785,19 @@
         <v>670824</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>630329</v>
+        <v>633718</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>713416</v>
+        <v>715213</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4162998989954522</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3911694949415345</v>
+        <v>0.3932727210937332</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4427317863212646</v>
+        <v>0.4438472014231197</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>141326</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>120859</v>
+        <v>120073</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>164195</v>
+        <v>166733</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1762294435790551</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1507080504885279</v>
+        <v>0.1497277933011582</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.204745903842573</v>
+        <v>0.2079113089797519</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>245</v>
@@ -1835,19 +1835,19 @@
         <v>175252</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>155825</v>
+        <v>154027</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>196905</v>
+        <v>197623</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2165076213334234</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1925075398258508</v>
+        <v>0.1902858296649076</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2432569910140582</v>
+        <v>0.2441450027003283</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>386</v>
@@ -1856,19 +1856,19 @@
         <v>316578</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>288164</v>
+        <v>288242</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>349283</v>
+        <v>349945</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1964623502071255</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1788289087775193</v>
+        <v>0.1788773570673788</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2167581575672541</v>
+        <v>0.2171691584234717</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>139910</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>119030</v>
+        <v>115312</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>167532</v>
+        <v>166229</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1744631648446587</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1484273138526158</v>
+        <v>0.1437903866468875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.208907855497666</v>
+        <v>0.2072829550246281</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>232</v>
@@ -1906,19 +1906,19 @@
         <v>188331</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>166464</v>
+        <v>168777</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>210627</v>
+        <v>211231</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2326655523105031</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2056510561465629</v>
+        <v>0.2085078307017394</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2602099635868855</v>
+        <v>0.2609557262126714</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>344</v>
@@ -1927,19 +1927,19 @@
         <v>328241</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>295149</v>
+        <v>299869</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>361831</v>
+        <v>364268</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2036999262073172</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1831639179147763</v>
+        <v>0.1860930222929607</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.224545183532298</v>
+        <v>0.22605752984042</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>188017</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>158874</v>
+        <v>162070</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>217526</v>
+        <v>221716</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1904876464968641</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1609617546051234</v>
+        <v>0.1642001576732739</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2203848087759351</v>
+        <v>0.2246294213919749</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>164</v>
@@ -2052,19 +2052,19 @@
         <v>126752</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>110240</v>
+        <v>108084</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>148791</v>
+        <v>145690</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.113706941971626</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09889499526028767</v>
+        <v>0.0969602627872482</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1334780537965764</v>
+        <v>0.1306961678380238</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>319</v>
@@ -2073,19 +2073,19 @@
         <v>314768</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>282049</v>
+        <v>282042</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>355691</v>
+        <v>352248</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1497648833756557</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1341974386791863</v>
+        <v>0.1341940022995239</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1692354769757675</v>
+        <v>0.1675976327839954</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>103090</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>83179</v>
+        <v>84094</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>127277</v>
+        <v>127901</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1044445477628419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08427229034791468</v>
+        <v>0.0851989784767435</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1289498444818561</v>
+        <v>0.1295819782104323</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>70</v>
@@ -2123,19 +2123,19 @@
         <v>61159</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>47576</v>
+        <v>47948</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>79684</v>
+        <v>78359</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.05486504191453799</v>
+        <v>0.054865041914538</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04268000690951107</v>
+        <v>0.04301375370309336</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07148316577152417</v>
+        <v>0.07029436958948367</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>162</v>
@@ -2144,19 +2144,19 @@
         <v>164249</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>139463</v>
+        <v>139445</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>194877</v>
+        <v>192929</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.07814869016670081</v>
+        <v>0.07814869016670084</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06635572422291811</v>
+        <v>0.0663472042729908</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09272152729351051</v>
+        <v>0.09179441464823745</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>415116</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>383791</v>
+        <v>383670</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>448850</v>
+        <v>449505</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4205712077150369</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3888342300751229</v>
+        <v>0.388712161946097</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4547485507275043</v>
+        <v>0.4554117980067012</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>692</v>
@@ -2194,19 +2194,19 @@
         <v>475117</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>443308</v>
+        <v>447702</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>504099</v>
+        <v>505461</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4262207772320642</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3976849371590606</v>
+        <v>0.4016267362576427</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4522200945666289</v>
+        <v>0.4534416334766445</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1144</v>
@@ -2215,19 +2215,19 @@
         <v>890233</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>848966</v>
+        <v>846043</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>934796</v>
+        <v>933248</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4235676126399627</v>
+        <v>0.4235676126399628</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4039328570071742</v>
+        <v>0.4025422056261887</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4447703320704134</v>
+        <v>0.4440335773424721</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>174894</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>150865</v>
+        <v>153075</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>198051</v>
+        <v>198317</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1771921534914594</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1528472279257347</v>
+        <v>0.1550867753723362</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2006534931717905</v>
+        <v>0.2009234730763997</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>360</v>
@@ -2265,19 +2265,19 @@
         <v>252947</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>227235</v>
+        <v>228738</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>278213</v>
+        <v>280022</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2269155134537455</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2038495948034019</v>
+        <v>0.2051972408116372</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2495806043216565</v>
+        <v>0.2512040348178173</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>559</v>
@@ -2286,19 +2286,19 @@
         <v>427841</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>393432</v>
+        <v>393697</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>462507</v>
+        <v>465076</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2035643080823197</v>
+        <v>0.2035643080823198</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1871923486825625</v>
+        <v>0.1873185602106574</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2200581123671042</v>
+        <v>0.2212805930780536</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>105913</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>88168</v>
+        <v>84075</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>131273</v>
+        <v>128616</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1073044445337975</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08932696265445132</v>
+        <v>0.08517976130735731</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1329977391908804</v>
+        <v>0.1303062850460014</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>270</v>
@@ -2336,19 +2336,19 @@
         <v>198746</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>177268</v>
+        <v>176857</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>222310</v>
+        <v>224801</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1782917254280264</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1590248298563642</v>
+        <v>0.1586560145862578</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.199430806287703</v>
+        <v>0.2016660151899162</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>375</v>
@@ -2357,19 +2357,19 @@
         <v>304658</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>273586</v>
+        <v>275324</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>336754</v>
+        <v>338148</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1449545057353608</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1301706522080888</v>
+        <v>0.1309976503794821</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1602255205035459</v>
+        <v>0.1608885524132157</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>427915</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>379960</v>
+        <v>383514</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>478699</v>
+        <v>479530</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1214703423606737</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.107857704552123</v>
+        <v>0.1088662926373118</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1358861527418696</v>
+        <v>0.1361221434341268</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>330</v>
@@ -2482,19 +2482,19 @@
         <v>261409</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>231991</v>
+        <v>233550</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>292113</v>
+        <v>292374</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07015746672110378</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06226221969139514</v>
+        <v>0.06268054944689727</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07839794003743461</v>
+        <v>0.07846783514504954</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>661</v>
@@ -2503,19 +2503,19 @@
         <v>689324</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>639884</v>
+        <v>634244</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>747898</v>
+        <v>749047</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0950945671108067</v>
+        <v>0.09509456711080669</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08827415246268717</v>
+        <v>0.08749605684962999</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1031750277168135</v>
+        <v>0.1033336323077529</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>447172</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>401941</v>
+        <v>399347</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>503278</v>
+        <v>497395</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1269366199535153</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1140971520531434</v>
+        <v>0.1133607545973292</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1428632890867667</v>
+        <v>0.1411934358741474</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>279</v>
@@ -2553,19 +2553,19 @@
         <v>233617</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>205673</v>
+        <v>207486</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>265222</v>
+        <v>264955</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06269857075234514</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05519895965874422</v>
+        <v>0.05568559850910799</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07118095212005766</v>
+        <v>0.07110916507744038</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>619</v>
@@ -2574,19 +2574,19 @@
         <v>680788</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>620995</v>
+        <v>624745</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>737660</v>
+        <v>740212</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09391706439164808</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08566837758939935</v>
+        <v>0.08618569003645581</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1017627213352392</v>
+        <v>0.1021147397255646</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>1469402</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1403545</v>
+        <v>1405527</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1532654</v>
+        <v>1533128</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4171127348377002</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3984182371537621</v>
+        <v>0.3989807553951411</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4350677855312697</v>
+        <v>0.4352022226222663</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2575</v>
@@ -2624,19 +2624,19 @@
         <v>1722176</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1661158</v>
+        <v>1665854</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1773681</v>
+        <v>1775295</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4622010736550757</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4458250902347469</v>
+        <v>0.4470855130980252</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4760241227168263</v>
+        <v>0.4764573292612923</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4110</v>
@@ -2645,19 +2645,19 @@
         <v>3191578</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3108457</v>
+        <v>3102769</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3282247</v>
+        <v>3273620</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4402889820507851</v>
+        <v>0.440288982050785</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4288222280052479</v>
+        <v>0.4280375020228891</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4527970676397942</v>
+        <v>0.4516069968208009</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>650676</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>597711</v>
+        <v>602206</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>698948</v>
+        <v>703750</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1847044929192632</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.169669606081482</v>
+        <v>0.1709456076333942</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.198407412707404</v>
+        <v>0.1997705309889588</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1193</v>
@@ -2695,19 +2695,19 @@
         <v>809626</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>764111</v>
+        <v>764441</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>857817</v>
+        <v>850253</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2172890185050985</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2050736793594096</v>
+        <v>0.2051623021777957</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2302226401030979</v>
+        <v>0.2281926842052802</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1848</v>
@@ -2716,19 +2716,19 @@
         <v>1460302</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1395658</v>
+        <v>1392999</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1526991</v>
+        <v>1526251</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2014535468898962</v>
+        <v>0.2014535468898961</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1925357307908203</v>
+        <v>0.1921690020033742</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2106535381496631</v>
+        <v>0.2105515598696233</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>527629</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>482016</v>
+        <v>482447</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>575733</v>
+        <v>578533</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1497758099288477</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1368276865290474</v>
+        <v>0.1369500234919536</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1634308247896932</v>
+        <v>0.164225480026551</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>974</v>
@@ -2766,19 +2766,19 @@
         <v>699204</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>660825</v>
+        <v>654443</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>744330</v>
+        <v>739326</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1876538703663768</v>
+        <v>0.1876538703663767</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1773535323873527</v>
+        <v>0.1756408747657231</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1997647906182012</v>
+        <v>0.1984219731086567</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1480</v>
@@ -2787,19 +2787,19 @@
         <v>1226833</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1171029</v>
+        <v>1163135</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1298674</v>
+        <v>1292946</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1692458395568641</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.161547407840105</v>
+        <v>0.1604583946248644</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1791564233590598</v>
+        <v>0.1783662510435417</v>
       </c>
     </row>
     <row r="33">
